--- a/PSM_Analysis/matched_pairs.xlsx
+++ b/PSM_Analysis/matched_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,925 +463,1870 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>中山市</t>
+          <t>三亚市</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4264975375846469</v>
+        <v>0.8119100838407438</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4359312803779243</v>
+        <v>0.8381395755333563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009433742793277411</v>
+        <v>0.02622949169261246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>临沧市</t>
+          <t>三明市</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2110394892374094</v>
+        <v>0.4360725017782442</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>沧州市</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2092252744548354</v>
+        <v>0.4345725308670595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001814214782573986</v>
+        <v>0.001499970911184645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>丽江市</t>
+          <t>临沧市</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2678729937544677</v>
+        <v>0.327480286687736</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>乐山市</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2682482154185394</v>
+        <v>0.3291810239202002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003752216640717787</v>
+        <v>0.001700737232464222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>云浮市</t>
+          <t>丽江市</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2176109658465101</v>
+        <v>0.2808345119249429</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>来宾市</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2176094484472105</v>
+        <v>0.2822831333266238</v>
       </c>
       <c r="E5" t="n">
-        <v>1.517399299655331e-06</v>
+        <v>0.00144862140168095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>佛山市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4368591519215579</v>
+        <v>0.4200369245688882</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>绵阳市</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4359312803779243</v>
+        <v>0.4197787107651751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009278715436335516</v>
+        <v>0.0002582138037131587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1906984351700549</v>
+        <v>0.613254101256405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>马鞍山市</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.190503942582746</v>
+        <v>0.6254247297272467</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000194492587308942</v>
+        <v>0.01217062847084172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>保山市</t>
+          <t>云浮市</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2219081636822118</v>
+        <v>0.3966250250652316</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2219432258817438</v>
+        <v>0.3955278914329087</v>
       </c>
       <c r="E8" t="n">
-        <v>3.506219953203216e-05</v>
+        <v>0.001097133632322889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>十堰市</t>
+          <t>佛山市</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1900747804565934</v>
+        <v>0.8336335103022415</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1902119970481761</v>
+        <v>0.8381395755333563</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001372165915826951</v>
+        <v>0.004506065231114742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>咸宁市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1874541510727971</v>
+        <v>0.4498376985280554</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>乐山市</t>
+          <t>宿州市</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1873628798822718</v>
+        <v>0.4493862799998999</v>
       </c>
       <c r="E10" t="n">
-        <v>9.127119052526611e-05</v>
+        <v>0.0004514185281555561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>保山市</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2537723880192049</v>
+        <v>0.3966241757469238</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>内江市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2551930569546523</v>
+        <v>0.3955278914329087</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001420668935447456</v>
+        <v>0.001096284314015095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.223015474260827</v>
+        <v>0.3977159639459741</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德阳市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.22321311328252</v>
+        <v>0.3955278914329087</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001976390216929802</v>
+        <v>0.002188072513065353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1815420959602249</v>
+        <v>0.4775678025550092</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>莆田市</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1812871633262938</v>
+        <v>0.4699569228572769</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000254932633931032</v>
+        <v>0.007610879697732387</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>十堰市</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4536262492389802</v>
+        <v>0.383780930469844</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>聊城市</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4359312803779243</v>
+        <v>0.3834524461237243</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01769496886105587</v>
+        <v>0.0003284843461197062</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2408967493999586</v>
+        <v>0.8128439627161388</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>枣庄市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2412593814373767</v>
+        <v>0.8381395755333563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003626320374181535</v>
+        <v>0.02529561281721748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>惠州市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1688621938973023</v>
+        <v>0.425180789328957</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>枣庄市</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.169049031828665</v>
+        <v>0.425014840449956</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001868379313627322</v>
+        <v>0.00016594887900101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>揭阳市</t>
+          <t>厦门市</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.304228259168836</v>
+        <v>0.8783708593127539</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3086350818972168</v>
+        <v>0.8381395755333563</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004406822728380777</v>
+        <v>0.04023128377939766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.177563944839339</v>
+        <v>0.6591879588731062</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>黑河市</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1776442998990992</v>
+        <v>0.6562358756912186</v>
       </c>
       <c r="E18" t="n">
-        <v>8.035505976028423e-05</v>
+        <v>0.002952083181887666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>昭通市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2892983635497073</v>
+        <v>0.3664302556184671</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>防城港市</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2910206525936036</v>
+        <v>0.3657884926409759</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001722289043896263</v>
+        <v>0.0006417629774911893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>咸宁市</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2137977547831188</v>
+        <v>0.4069272784427079</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>定西市</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2138541423867965</v>
+        <v>0.4066306118394696</v>
       </c>
       <c r="E20" t="n">
-        <v>5.638760367768225e-05</v>
+        <v>0.0002966666032382381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1961045811125881</v>
+        <v>0.3849956822764374</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>眉山市</t>
+          <t>上饶市</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1964566045717468</v>
+        <v>0.3847312587352566</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003520234591586624</v>
+        <v>0.000264423541180836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>梅州市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2049391160164574</v>
+        <v>0.680316214756457</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2040180726849231</v>
+        <v>0.7012654194552961</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0009210433315342548</v>
+        <v>0.0209492046988391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1965278372415642</v>
+        <v>0.762210631617693</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1965162635637151</v>
+        <v>0.7154843429687955</v>
       </c>
       <c r="E23" t="n">
-        <v>1.157367784909713e-05</v>
+        <v>0.0467262886488975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>武汉市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2835649112221416</v>
+        <v>0.7375954471550571</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>张掖市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2814971417875785</v>
+        <v>0.7154843429687955</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002067769434563049</v>
+        <v>0.02211110418626161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>汕尾市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2204195754243511</v>
+        <v>0.4454486645185869</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>宁德市</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2202026309034454</v>
+        <v>0.4445131814631628</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002169445209056486</v>
+        <v>0.00093548305542418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1828745449428212</v>
+        <v>0.4237410924173258</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.1832303421242738</v>
+        <v>0.4243757584585337</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003557971814526495</v>
+        <v>0.0006346660412078764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>河源市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1789144148448989</v>
+        <v>0.7326326383290898</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1788105739475986</v>
+        <v>0.7154843429687955</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001038408973003113</v>
+        <v>0.01714829536029427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>清远市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.173115728402977</v>
+        <v>0.3460999215469905</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.1726345943643592</v>
+        <v>0.350194995057272</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0004811340386178253</v>
+        <v>0.004095073510281488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>湛江市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2744009185595407</v>
+        <v>0.2317354600738359</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2738896863471085</v>
+        <v>0.2351607689010363</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005112322124322111</v>
+        <v>0.003425308827200463</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>潮州市</t>
+          <t>徐州市</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2795008306220881</v>
+        <v>0.5513949565618661</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>来宾市</t>
+          <t>台州市</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2798431526490222</v>
+        <v>0.5660041007507112</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003423220269340721</v>
+        <v>0.01460914418884507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>玉溪市</t>
+          <t>惠州市</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2102085167031293</v>
+        <v>0.5861005284258889</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.2092252744548354</v>
+        <v>0.5846344321746391</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0009832422482939085</v>
+        <v>0.001466096251249827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>珠海市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.303127525876153</v>
+        <v>0.7329756154317359</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3086350818972168</v>
+        <v>0.7154843429687955</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005507556021063731</v>
+        <v>0.01749127246294047</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>肇庆市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.171920534916218</v>
+        <v>0.3518334369966879</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.1726345943643592</v>
+        <v>0.350194995057272</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0007140594481412077</v>
+        <v>0.001638441939415869</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>茂名市</t>
+          <t>揭阳市</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2962253385949996</v>
+        <v>0.4754476883131095</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>张家界市</t>
+          <t>莆田市</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.2973242457146131</v>
+        <v>0.4699569228572769</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001098907119613579</v>
+        <v>0.005490765455832658</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>荆州市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.232422924875572</v>
+        <v>0.5987674161737686</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>唐山市</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.2324953581114402</v>
+        <v>0.5912180298330391</v>
       </c>
       <c r="E35" t="n">
-        <v>7.243323586822448e-05</v>
+        <v>0.007549386340729547</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>荆门市</t>
+          <t>昭通市</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1847100321306085</v>
+        <v>0.2577542793940615</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>资阳市</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1835851827585738</v>
+        <v>0.254695267568409</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001124849372034664</v>
+        <v>0.003059011825652436</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2473630036670935</v>
+        <v>0.3825176323055254</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>聊城市</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.2460331109187277</v>
+        <v>0.3834524461237243</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001329892748365813</v>
+        <v>0.0009348138181988763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2618221147588362</v>
+        <v>0.3833059406393634</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>郑州市</t>
+          <t>聊城市</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.2608471094945428</v>
+        <v>0.3834524461237243</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0009750052642933937</v>
+        <v>0.0001465054843609592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄂州市</t>
+          <t>曲靖市</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2515035640483855</v>
+        <v>0.2922196425801973</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>河池市</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.251292539717013</v>
+        <v>0.2930544207591761</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0002110243313724891</v>
+        <v>0.0008347781789787567</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1572076832313185</v>
+        <v>0.3693522929888799</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>崇左市</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1553572758993974</v>
+        <v>0.3698611352411335</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001850407331921072</v>
+        <v>0.0005088422522535607</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>铜川市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2594634869160597</v>
+        <v>0.4628556173632665</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>亳州市</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.2591746484061782</v>
+        <v>0.4608998128152691</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002888385098815949</v>
+        <v>0.001955804547997375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>阳江市</t>
+          <t>梅州市</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.198831872315492</v>
+        <v>0.4033255841598561</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>忻州市</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1988101375935321</v>
+        <v>0.4025130622222321</v>
       </c>
       <c r="E42" t="n">
-        <v>2.1734721959904e-05</v>
+        <v>0.0008125219376239889</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>随州市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2102489952468601</v>
+        <v>0.2683929630070855</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>张掖市</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.2092252744548354</v>
+        <v>0.2721605627504958</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001023720792024646</v>
+        <v>0.003767599743410344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>韶关市</t>
+          <t>汕头市</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1914919065211776</v>
+        <v>0.6727701110115392</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>黑河市</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1911383419226642</v>
+        <v>0.6562358756912186</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0003535645985134062</v>
+        <v>0.01653423532032061</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>汕尾市</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4770890930135429</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>莆田市</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4699569228572769</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.007132170156265993</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>江门市</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5525104030287725</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5660041007507112</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01349369772193865</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>池州市</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.407217885154024</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.4066306118394696</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0005872733145543818</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>河源市</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3801499810244633</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安庆市</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3811728284150632</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001022847390599824</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>泉州市</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6518299110410418</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>威海市</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.650931282685372</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0008986283556697838</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7986560637619031</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8381395755333563</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.03948351177145315</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>淮北市</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4137490067588873</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宿迁市</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4139677119638048</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0002187052049175686</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>淮安市</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5021438861815536</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>永州市</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5017549326243591</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0003889535571944824</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>清远市</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4210627933873071</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>岳阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4212214467463828</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0001586533590757222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>温州市</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5750360455645013</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>湖州市</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5800435173811507</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0050074718166494</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>湘潭市</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.4730931330771188</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>莆田市</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4699569228572769</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.003136210219841951</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>湛江市</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4348310523554547</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>沧州市</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4345725308670595</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0002585214883951692</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>潍坊市</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5144973773156336</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5144874488213397</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.9284942939315e-06</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>潮州市</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4566420563323674</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.4573107323174426</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00066867598507514</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>烟台市</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6362118213499585</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太原市</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6358857073112733</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0003261140386852102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>焦作市</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.446763890584774</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宁德市</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4445131814631628</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.002250709121611238</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>玉溪市</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2855236882690405</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2852070606763044</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0003166275927361517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>珠海市</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8217638286804567</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8381395755333563</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.01637574685289955</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>石家庄市</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5707249682449257</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东营市</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5697323027090933</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0009926655358324377</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>秦皇岛市</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.57642844774723</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>湖州市</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5800435173811507</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.003615069633920664</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>肇庆市</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5818518031959072</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰州市</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5828315562833762</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0009797530874690041</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>苏州市</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8232797714912413</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>无锡市</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8381395755333563</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.01485980404211495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>茂名市</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4874576117314148</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>临沂市</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4906444067085135</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.003186794977098673</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>荆州市</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4354216057291153</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>沧州市</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4345725308670595</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0008490748620557098</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>荆门市</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.419535266649485</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>绵阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.4197787107651751</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0002434441156900502</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>衢州市</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.401773050973355</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4025130622222321</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0007400112488770705</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>西宁市</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4197397600480809</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>绵阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4197787107651751</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.895071709414388e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>西安市</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7068691063482203</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>张家界市</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.709054921006085</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.002185814657864715</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>贵阳市</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5619268549593311</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5660041007507112</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.004077245791380024</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>赣州市</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4527886958479743</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4532446118010795</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0004559159531051793</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>遵义市</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3727811552702261</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>衡水市</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.3727311248061621</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.003046406404366e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>郑州市</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.672041909483115</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>黑河市</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6562358756912186</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01580603379189649</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>郴州市</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4298674266663352</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>常德市</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.430192681033044</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.000325254366708827</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>鄂州市</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4592682147983934</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>亳州市</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.4608998128152691</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.001631598016875735</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>重庆市</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.6344537325643931</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>舟山市</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.6355709153980794</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.001117182833686337</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>金华市</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5641492246604457</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5660041007507112</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.001854876090265467</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>铜川市</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2654530490120525</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>吕梁市</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.262825094962794</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.002627954049258419</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>铜陵市</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5678559963132986</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5660041007507112</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.001851895562587469</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>银川市</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4097756465915278</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>邵阳市</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4109970999054872</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.001221453313959453</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>镇江市</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.6897644646402802</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>福州市</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7012654194552961</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0115009548150159</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>长治市</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.344351434290952</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>巴彦淖尔市</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.3410818314234012</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.003269602867550792</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.46812649631076</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>莆田市</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4699569228572769</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.001830426546516828</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>随州市</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.354484401328752</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>宜春市</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3550856280972248</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0006012267684728512</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>青岛市</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7472721804341992</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7154843429687955</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0317878374654037</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>韶关市</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.493360509909136</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>日照市</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.4917140669236834</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.001646442985452634</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>黄冈市</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.2016672042557374</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>南平市</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.2017529183738534</v>
-      </c>
-      <c r="E45" t="n">
-        <v>8.571411811600371e-05</v>
+      <c r="B90" t="n">
+        <v>0.4083759836666027</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4066306118394696</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.00174537182713308</v>
       </c>
     </row>
   </sheetData>

--- a/PSM_Analysis/matched_pairs.xlsx
+++ b/PSM_Analysis/matched_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8119100838407438</v>
+        <v>0.8173462000332722</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02622949169261246</v>
+        <v>0.02669543831967158</v>
       </c>
     </row>
     <row r="3">
@@ -488,301 +488,301 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4360725017782442</v>
+        <v>0.3768049792203352</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4345725308670595</v>
+        <v>0.3764870400724407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001499970911184645</v>
+        <v>0.0003179391478945748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>临沧市</t>
+          <t>东莞市</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.327480286687736</v>
+        <v>0.8849520060590313</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>乐山市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3291810239202002</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001700737232464222</v>
+        <v>0.04091036770608758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>丽江市</t>
+          <t>中山市</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2808345119249429</v>
+        <v>0.7260923081019921</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>来宾市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2822831333266238</v>
+        <v>0.7314278054809498</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00144862140168095</v>
+        <v>0.005335497378957665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>临沧市</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4200369245688882</v>
+        <v>0.2599552490184595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>乌兰察布市</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4197787107651751</v>
+        <v>0.25743243092777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002582138037131587</v>
+        <v>0.002522818090689494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>丽江市</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.613254101256405</v>
+        <v>0.1420277327415475</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>自贡市</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6254247297272467</v>
+        <v>0.1370146575941492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01217062847084172</v>
+        <v>0.005013075147398294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>云浮市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3966250250652316</v>
+        <v>0.2721724456767213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>贵港市</t>
+          <t>巴彦淖尔市</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3955278914329087</v>
+        <v>0.2715591373357134</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001097133632322889</v>
+        <v>0.0006133083410079232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>佛山市</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8336335103022415</v>
+        <v>0.5720827864731185</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.5819836192208281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004506065231114742</v>
+        <v>0.009900832747709587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>云浮市</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4498376985280554</v>
+        <v>0.3435214477397227</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宿州市</t>
+          <t>信阳市</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4493862799998999</v>
+        <v>0.3445523962484314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004514185281555561</v>
+        <v>0.001030948508708718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>保山市</t>
+          <t>佛山市</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3966241757469238</v>
+        <v>0.8090309044474298</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>贵港市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3955278914329087</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001096284314015095</v>
+        <v>0.03501073390551401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3977159639459741</v>
+        <v>0.4671438607416168</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>贵港市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3955278914329087</v>
+        <v>0.4633516113832016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002188072513065353</v>
+        <v>0.003792249358415212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>保山市</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4775678025550092</v>
+        <v>0.3106428572715988</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>平凉市</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4699569228572769</v>
+        <v>0.3098222363883615</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007610879697732387</v>
+        <v>0.0008206208832372552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>十堰市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.383780930469844</v>
+        <v>0.374605780331918</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>聊城市</t>
+          <t>开封市</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3834524461237243</v>
+        <v>0.3742055655813531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003284843461197062</v>
+        <v>0.0004002147505648979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8128439627161388</v>
+        <v>0.3909857658139979</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>枣庄市</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.3898137248991556</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02529561281721748</v>
+        <v>0.001172040914842243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>十堰市</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.425180789328957</v>
+        <v>0.3309766363674941</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>枣庄市</t>
+          <t>牡丹江市</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.425014840449956</v>
+        <v>0.3309291679287372</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00016594887900101</v>
+        <v>4.746843875691464e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>厦门市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8783708593127539</v>
+        <v>0.8321215050272512</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -790,1028 +790,1028 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04023128377939766</v>
+        <v>0.01192013332569253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6591879588731062</v>
+        <v>0.3684578688330198</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>宿迁市</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6562358756912186</v>
+        <v>0.3685735538222124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002952083181887666</v>
+        <v>0.000115684989192566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>厦门市</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3664302556184671</v>
+        <v>0.8588704353664229</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3657884926409759</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0006417629774911893</v>
+        <v>0.01482879701347917</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>咸宁市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4069272784427079</v>
+        <v>0.6693232993021011</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>定西市</t>
+          <t>包头市</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4066306118394696</v>
+        <v>0.6764900792068878</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002966666032382381</v>
+        <v>0.007166779904786647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3849956822764374</v>
+        <v>0.3940388306286788</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上饶市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3847312587352566</v>
+        <v>0.3935468721005821</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000264423541180836</v>
+        <v>0.000491958528096692</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>咸宁市</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.680316214756457</v>
+        <v>0.3773382009489468</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>四平市</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.7012654194552961</v>
+        <v>0.3772150387646325</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0209492046988391</v>
+        <v>0.000123162184314296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.762210631617693</v>
+        <v>0.3010445955338716</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>石嘴山市</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7154843429687955</v>
+        <v>0.3033184056845205</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0467262886488975</v>
+        <v>0.002273810150648869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7375954471550571</v>
+        <v>0.6891715703463251</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>扬州市</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7154843429687955</v>
+        <v>0.6885984106458147</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02211110418626161</v>
+        <v>0.0005731597005104172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4454486645185869</v>
+        <v>0.8343024979440891</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>宁德市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4445131814631628</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00093548305542418</v>
+        <v>0.009739140408854707</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4237410924173258</v>
+        <v>0.7697520696513712</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4243757584585337</v>
+        <v>0.7607973217283732</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0006346660412078764</v>
+        <v>0.008954747922997996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7326326383290898</v>
+        <v>0.4183643860283994</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>许昌市</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7154843429687955</v>
+        <v>0.4187212875925289</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01714829536029427</v>
+        <v>0.0003569015641294304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3460999215469905</v>
+        <v>0.407985835769912</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>白山市</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.350194995057272</v>
+        <v>0.4071140119121204</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004095073510281488</v>
+        <v>0.0008718238577915538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2317354600738359</v>
+        <v>0.7633200063342046</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>武威市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2351607689010363</v>
+        <v>0.7607973217283732</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003425308827200463</v>
+        <v>0.002522684605831382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5513949565618661</v>
+        <v>0.2430102280527658</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>嘉峪关市</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5660041007507112</v>
+        <v>0.2444267359609275</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01460914418884507</v>
+        <v>0.001416507908161724</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>惠州市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5861005284258889</v>
+        <v>0.1203370915799696</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5846344321746391</v>
+        <v>0.1127005748163775</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001466096251249827</v>
+        <v>0.007636516763592047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>徐州市</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7329756154317359</v>
+        <v>0.5697002684827946</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7154843429687955</v>
+        <v>0.5819836192208281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01749127246294047</v>
+        <v>0.01228335073803344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>惠州市</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3518334369966879</v>
+        <v>0.6411959300284414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.350194995057272</v>
+        <v>0.6506604951975654</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001638441939415869</v>
+        <v>0.009464565169123973</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>揭阳市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4754476883131095</v>
+        <v>0.7847425370452863</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4699569228572769</v>
+        <v>0.7607973217283732</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005490765455832658</v>
+        <v>0.02394521531691307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5987674161737686</v>
+        <v>0.3358007666947319</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>南阳市</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5912180298330391</v>
+        <v>0.3355668165931009</v>
       </c>
       <c r="E35" t="n">
-        <v>0.007549386340729547</v>
+        <v>0.0002339501016309642</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>昭通市</t>
+          <t>揭阳市</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2577542793940615</v>
+        <v>0.4367340829745346</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>资阳市</t>
+          <t>绵阳市</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.254695267568409</v>
+        <v>0.4283417552558393</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003059011825652436</v>
+        <v>0.008392327718695303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3825176323055254</v>
+        <v>0.6424428967302566</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>聊城市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3834524461237243</v>
+        <v>0.6506604951975654</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0009348138181988763</v>
+        <v>0.008217598467308851</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>昭通市</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3833059406393634</v>
+        <v>0.1437017769637478</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>聊城市</t>
+          <t>六盘水市</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.3834524461237243</v>
+        <v>0.148616681051944</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001465054843609592</v>
+        <v>0.004914904088196143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2922196425801973</v>
+        <v>0.3686887923741778</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>河池市</t>
+          <t>宿迁市</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.2930544207591761</v>
+        <v>0.3685735538222124</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008347781789787567</v>
+        <v>0.0001152385519653798</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3693522929888799</v>
+        <v>0.3359084323084275</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>崇左市</t>
+          <t>南阳市</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.3698611352411335</v>
+        <v>0.3355668165931009</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0005088422522535607</v>
+        <v>0.0003416157153265376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>曲靖市</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4628556173632665</v>
+        <v>0.2296174218215934</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>亳州市</t>
+          <t>伊春市</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4608998128152691</v>
+        <v>0.2295907756584178</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001955804547997375</v>
+        <v>2.66461631756032e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>梅州市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4033255841598561</v>
+        <v>0.8366090374002225</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4025130622222321</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0008125219376239889</v>
+        <v>0.007432600952721247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2683929630070855</v>
+        <v>0.3337490810091809</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>张掖市</t>
+          <t>梧州市</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.2721605627504958</v>
+        <v>0.332440471887651</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003767599743410344</v>
+        <v>0.001308609121529969</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>汕头市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6727701110115392</v>
+        <v>0.470150599549103</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>新余市</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6562358756912186</v>
+        <v>0.472315266014515</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01653423532032061</v>
+        <v>0.002164666465411968</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>汕尾市</t>
+          <t>梅州市</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4770890930135429</v>
+        <v>0.364596052980641</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>商丘市</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4699569228572769</v>
+        <v>0.3640769492208184</v>
       </c>
       <c r="E45" t="n">
-        <v>0.007132170156265993</v>
+        <v>0.0005191037598226145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5525104030287725</v>
+        <v>0.2068479869654443</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>泸州市</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5660041007507112</v>
+        <v>0.2054478047372761</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01349369772193865</v>
+        <v>0.001400182228168206</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>武汉市</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.407217885154024</v>
+        <v>0.8219495626076719</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>定西市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.4066306118394696</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0005872733145543818</v>
+        <v>0.02209207574527183</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>河源市</t>
+          <t>汕头市</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3801499810244633</v>
+        <v>0.5524249595517867</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安庆市</t>
+          <t>漳州市</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3811728284150632</v>
+        <v>0.5480745172032501</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001022847390599824</v>
+        <v>0.004350442348536654</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>汕尾市</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6518299110410418</v>
+        <v>0.4740769939963922</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>威海市</t>
+          <t>新余市</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.650931282685372</v>
+        <v>0.472315266014515</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0008986283556697838</v>
+        <v>0.001761727981877292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>江门市</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7986560637619031</v>
+        <v>0.5930290076316872</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>连云港市</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.5889086120814283</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03948351177145315</v>
+        <v>0.004120395550258893</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4137490067588873</v>
+        <v>0.3874581040509938</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>宿迁市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.4139677119638048</v>
+        <v>0.3884673289476389</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0002187052049175686</v>
+        <v>0.001009224896645067</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>河源市</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5021438861815536</v>
+        <v>0.3861091008453745</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>永州市</t>
+          <t>萍乡市</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5017549326243591</v>
+        <v>0.3850143567992458</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0003889535571944824</v>
+        <v>0.001094744046128748</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>清远市</t>
+          <t>泉州市</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4210627933873071</v>
+        <v>0.6906862012470775</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>岳阳市</t>
+          <t>南通市</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.4212214467463828</v>
+        <v>0.689946010113622</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0001586533590757222</v>
+        <v>0.0007401911334554701</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5750360455645013</v>
+        <v>0.7981544014541322</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>湖州市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5800435173811507</v>
+        <v>0.7607973217283732</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0050074718166494</v>
+        <v>0.03735707972575897</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>湘潭市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4730931330771188</v>
+        <v>0.3573100612250658</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>广安市</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.4699569228572769</v>
+        <v>0.3564217807257961</v>
       </c>
       <c r="E55" t="n">
-        <v>0.003136210219841951</v>
+        <v>0.0008882804992696447</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>湛江市</t>
+          <t>淮安市</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4348310523554547</v>
+        <v>0.5350422714982762</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>永州市</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.4345725308670595</v>
+        <v>0.5330973940668355</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002585214883951692</v>
+        <v>0.001944877431440672</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>清远市</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.5144973773156336</v>
+        <v>0.4609904960576564</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5144874488213397</v>
+        <v>0.4633516113832016</v>
       </c>
       <c r="E57" t="n">
-        <v>9.9284942939315e-06</v>
+        <v>0.002361115325545171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>潮州市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.4566420563323674</v>
+        <v>0.538142226381053</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.4573107323174426</v>
+        <v>0.5426091608932018</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00066867598507514</v>
+        <v>0.004466934512148746</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>烟台市</t>
+          <t>湘潭市</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.6362118213499585</v>
+        <v>0.4722846153787529</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>新余市</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.6358857073112733</v>
+        <v>0.472315266014515</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0003261140386852102</v>
+        <v>3.065063576201954e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>焦作市</t>
+          <t>湛江市</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.446763890584774</v>
+        <v>0.3312009140172018</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>宁德市</t>
+          <t>牡丹江市</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.4445131814631628</v>
+        <v>0.3309291679287372</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002250709121611238</v>
+        <v>0.0002717460884646417</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>玉溪市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2855236882690405</v>
+        <v>0.5366817036530311</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>永州市</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.2852070606763044</v>
+        <v>0.5330973940668355</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0003166275927361517</v>
+        <v>0.0035843095861956</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>珠海市</t>
+          <t>潮州市</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8217638286804567</v>
+        <v>0.3839309267865892</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.3838525319873808</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01637574685289955</v>
+        <v>7.839479920840331e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.5707249682449257</v>
+        <v>0.6535346116745194</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东营市</t>
+          <t>绍兴市</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5697323027090933</v>
+        <v>0.6516215155659545</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0009926655358324377</v>
+        <v>0.001913096108564938</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>焦作市</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.57642844774723</v>
+        <v>0.3940714790459249</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>湖州市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5800435173811507</v>
+        <v>0.3935468721005821</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003615069633920664</v>
+        <v>0.0005246069453428426</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>肇庆市</t>
+          <t>玉溪市</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.5818518031959072</v>
+        <v>0.1575768268514829</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>资阳市</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.5828315562833762</v>
+        <v>0.1574217800009965</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0009797530874690041</v>
+        <v>0.0001550468504864788</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>珠海市</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8232797714912413</v>
+        <v>0.8086841972992153</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1819,514 +1819,1207 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8381395755333563</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01485980404211495</v>
+        <v>0.03535744105372851</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>茂名市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4874576117314148</v>
+        <v>0.5801100678228412</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>临沂市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.4906444067085135</v>
+        <v>0.5819836192208281</v>
       </c>
       <c r="E67" t="n">
-        <v>0.003186794977098673</v>
+        <v>0.001873551397986839</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>荆州市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4354216057291153</v>
+        <v>0.6079735741647361</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>泰州市</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.4345725308670595</v>
+        <v>0.6100241305589137</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0008490748620557098</v>
+        <v>0.002050556394177616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>荆门市</t>
+          <t>肇庆市</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.419535266649485</v>
+        <v>0.646927382004736</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4197787107651751</v>
+        <v>0.6506604951975654</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0002434441156900502</v>
+        <v>0.003733113192829429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>衢州市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.401773050973355</v>
+        <v>0.8619300223735447</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4025130622222321</v>
+        <v>0.8440416383529438</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0007400112488770705</v>
+        <v>0.01788838402060089</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>茂名市</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4197397600480809</v>
+        <v>0.3801400304147788</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>宁德市</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.4197787107651751</v>
+        <v>0.380347666634766</v>
       </c>
       <c r="E71" t="n">
-        <v>3.895071709414388e-05</v>
+        <v>0.0002076362199871506</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>荆州市</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7068691063482203</v>
+        <v>0.4111283593276571</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>张家界市</t>
+          <t>沧州市</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.709054921006085</v>
+        <v>0.4115914941250824</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002185814657864715</v>
+        <v>0.0004631347974253242</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>荆门市</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.5619268549593311</v>
+        <v>0.3932395375740889</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.5660041007507112</v>
+        <v>0.3935468721005821</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004077245791380024</v>
+        <v>0.0003073345264931748</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>衢州市</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.4527886958479743</v>
+        <v>0.3326495920868097</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>梧州市</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.4532446118010795</v>
+        <v>0.332440471887651</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0004559159531051793</v>
+        <v>0.0002091201991586966</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>遵义市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3727811552702261</v>
+        <v>0.3221033316464909</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>滁州市</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.3727311248061621</v>
+        <v>0.321504607698341</v>
       </c>
       <c r="E75" t="n">
-        <v>5.003046406404366e-05</v>
+        <v>0.0005987239481499151</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>郑州市</t>
+          <t>西安市</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.672041909483115</v>
+        <v>0.7468862778973656</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>黑河市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6562358756912186</v>
+        <v>0.7607973217283732</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01580603379189649</v>
+        <v>0.01391104383100761</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>郴州市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4298674266663352</v>
+        <v>0.5190356052647671</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>常德市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.430192681033044</v>
+        <v>0.5168400107277523</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000325254366708827</v>
+        <v>0.002195594537014789</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>鄂州市</t>
+          <t>赣州市</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4592682147983934</v>
+        <v>0.5321893912905067</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>亳州市</t>
+          <t>永州市</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.4608998128152691</v>
+        <v>0.5330973940668355</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001631598016875735</v>
+        <v>0.0009080027763288534</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>遵义市</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6344537325643931</v>
+        <v>0.3011020484740152</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>舟山市</t>
+          <t>石嘴山市</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.6355709153980794</v>
+        <v>0.3033184056845205</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001117182833686337</v>
+        <v>0.002216357210505282</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>金华市</t>
+          <t>郑州市</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.5641492246604457</v>
+        <v>0.7037723600060878</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>南通市</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.5660041007507112</v>
+        <v>0.689946010113622</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001854876090265467</v>
+        <v>0.01382634989246578</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>铜川市</t>
+          <t>郴州市</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2654530490120525</v>
+        <v>0.4687727786723674</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>吕梁市</t>
+          <t>新余市</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.262825094962794</v>
+        <v>0.472315266014515</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002627954049258419</v>
+        <v>0.003542487342147571</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>铜陵市</t>
+          <t>鄂州市</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5678559963132986</v>
+        <v>0.3842881886039434</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5660041007507112</v>
+        <v>0.3838525319873808</v>
       </c>
       <c r="E82" t="n">
-        <v>0.001851895562587469</v>
+        <v>0.0004356566165625853</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>银川市</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4097756465915278</v>
+        <v>0.7373957634510643</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>邵阳市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.4109970999054872</v>
+        <v>0.7314278054809498</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001221453313959453</v>
+        <v>0.005967957970114512</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>金华市</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6897644646402802</v>
+        <v>0.5619868067821912</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>漳州市</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.7012654194552961</v>
+        <v>0.5480745172032501</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0115009548150159</v>
+        <v>0.01391228957894108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>长治市</t>
+          <t>铜川市</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.344351434290952</v>
+        <v>0.1520543397324067</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>巴彦淖尔市</t>
+          <t>内江市</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.3410818314234012</v>
+        <v>0.1516145266122794</v>
       </c>
       <c r="E85" t="n">
-        <v>0.003269602867550792</v>
+        <v>0.0004398131201273359</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>阳江市</t>
+          <t>铜陵市</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.46812649631076</v>
+        <v>0.5107448100874207</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>台州市</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.4699569228572769</v>
+        <v>0.5167195510879644</v>
       </c>
       <c r="E86" t="n">
-        <v>0.001830426546516828</v>
+        <v>0.005974741000543737</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>随州市</t>
+          <t>银川市</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.354484401328752</v>
+        <v>0.3191550921299323</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>娄底市</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.3550856280972248</v>
+        <v>0.319043540188095</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0006012267684728512</v>
+        <v>0.0001115519418372624</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.7472721804341992</v>
+        <v>0.7074205706004435</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>南通市</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.7154843429687955</v>
+        <v>0.689946010113622</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0317878374654037</v>
+        <v>0.0174745604868215</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>韶关市</t>
+          <t>长治市</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.493360509909136</v>
+        <v>0.3111399045243747</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>日照市</t>
+          <t>朔州市</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.4917140669236834</v>
+        <v>0.3114912628613107</v>
       </c>
       <c r="E89" t="n">
-        <v>0.001646442985452634</v>
+        <v>0.0003513583369360029</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>阳江市</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.449066454596559</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4453301695863325</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.003736285010226548</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>随州市</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2885028657571836</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>防城港市</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2888238361002006</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0003209703430170352</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>青岛市</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7744449224112561</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>呼和浩特市</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7607973217283732</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01364760068288284</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>韶关市</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4910858243365312</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东营市</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4891403424799634</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.001945481856567843</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>黄冈市</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>0.4083759836666027</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>定西市</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4066306118394696</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.00174537182713308</v>
+      <c r="B94" t="n">
+        <v>0.3944129312647325</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>松原市</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.395152241730355</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.000739310465622478</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>丹东市</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5170883486316407</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>廊坊市</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5168400107277523</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0002483379038883404</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>南昌市</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5827389435927747</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>盐城市</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5834585271888036</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.000719583596028972</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>吉林市</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5489199465261432</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>漳州市</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5480745172032501</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0008454293228931098</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>呼伦贝尔市</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4991679750576513</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鄂尔多斯市</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.4967783697603274</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.002389605297323905</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>商洛市</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4162781738422648</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>滨州市</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.4157133985943317</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0005647752479331913</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>大连市</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6300515533716313</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>威海市</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.6281574550229211</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.001894098348710238</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>孝感市</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4646723834142794</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.4633516113832016</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.001320772031077833</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>安康市</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4189323194697923</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4187212875925289</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0002110318772634567</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>宝鸡市</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4653095913696039</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4633516113832016</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.001957979986402292</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>抚顺市</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5575398153409002</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>漳州市</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5480745172032501</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.00946529813765018</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>普洱市</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.4105826770380659</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上饶市</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.4101217840131231</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0004608930249427878</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>朝阳市</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4498529383706055</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4453301695863325</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.004522768784273046</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>本溪市</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5567564130867387</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>漳州市</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5480745172032501</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.008681895883488666</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>桂林市</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4562673127250872</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4633516113832016</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.007084298658114385</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>汉中市</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.4272671615365563</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>莆田市</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0.4277297993378002</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0004626378012438925</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6020131151681012</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>湖州市</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6032380601490713</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.001224944980970144</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>渭南市</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4450078468441199</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4453301695863325</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0003223227422125552</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>盘锦市</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6349153644359696</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>威海市</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.6281574550229211</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.006757909413048546</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>营口市</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5781861527856467</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>芜湖市</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5819836192208281</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.003797466435181418</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>葫芦岛市</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4807299628133942</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>临沂市</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4822737683327452</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.001543805519351016</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>襄阳市</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4926159897096938</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>济宁市</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0.4952662585326866</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.002650268822992796</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>辽阳市</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5736058824661764</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>芜湖市</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5819836192208281</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.008377736754651699</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>铁岭市</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4909165781315575</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东营市</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4891403424799634</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.001776235651594182</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>锦州市</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5100901007211084</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5167195510879644</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.006629450366856027</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>长沙市</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5931866747508372</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>连云港市</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5889086120814283</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.004278062669408889</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>阜新市</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4613569977177967</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4633516113832016</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.001994613665404876</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>鞍山市</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6889800549055403</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>扬州市</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6885984106458147</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0003816442597255332</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>黄山市</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4612514045037842</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长春市</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4633516113832016</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.002100206879417421</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>黄石市</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5134829777508433</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>台州市</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5167195510879644</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.003236573337121129</v>
       </c>
     </row>
   </sheetData>

--- a/PSM_Analysis/matched_pairs.xlsx
+++ b/PSM_Analysis/matched_pairs.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8173462000332722</v>
+        <v>0.8096654108417702</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.8321406029295618</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02669543831967158</v>
+        <v>0.02247519208779158</v>
       </c>
     </row>
     <row r="3">
@@ -488,28 +488,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3768049792203352</v>
+        <v>0.4228664448994353</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>贵港市</t>
+          <t>盐城市</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3764870400724407</v>
+        <v>0.4235661208204678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003179391478945748</v>
+        <v>0.0006996759210325387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>东莞市</t>
+          <t>中山市</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8849520060590313</v>
+        <v>0.7864737313179416</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,1060 +517,1060 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.8321406029295618</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04091036770608758</v>
+        <v>0.0456668716116202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中山市</t>
+          <t>临沧市</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7260923081019921</v>
+        <v>0.3121245758535675</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>南充市</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7314278054809498</v>
+        <v>0.3108623681722694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005335497378957665</v>
+        <v>0.001262207681298033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>临沧市</t>
+          <t>丽江市</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2599552490184595</v>
+        <v>0.3573442463042486</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>鹤壁市</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.25743243092777</v>
+        <v>0.3570919868204639</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002522818090689494</v>
+        <v>0.0002522594837846559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>丽江市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1420277327415475</v>
+        <v>0.4909766673580687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1370146575941492</v>
+        <v>0.4901234090419757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005013075147398294</v>
+        <v>0.0008532583160930085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2721724456767213</v>
+        <v>0.6141352884455955</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>巴彦淖尔市</t>
+          <t>太原市</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2715591373357134</v>
+        <v>0.6145040617553749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006133083410079232</v>
+        <v>0.0003687733097793577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>云浮市</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5720827864731185</v>
+        <v>0.3695806293968797</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>岳阳市</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.36740862422057</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009900832747709587</v>
+        <v>0.002172005176309721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>云浮市</t>
+          <t>佛山市</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3435214477397227</v>
+        <v>0.847004797913651</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信阳市</t>
+          <t>大庆市</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3445523962484314</v>
+        <v>0.8569344903774969</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001030948508708718</v>
+        <v>0.009929692463845896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>佛山市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8090309044474298</v>
+        <v>0.3655243078941953</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>阳泉市</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.3658476838731917</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03501073390551401</v>
+        <v>0.0003233759789963986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>保山市</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4671438607416168</v>
+        <v>0.4024015232333751</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>安顺市</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.4029250248494561</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003792249358415212</v>
+        <v>0.0005235016160810013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>保山市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3106428572715988</v>
+        <v>0.3428324624203213</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平凉市</t>
+          <t>双鸭山市</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3098222363883615</v>
+        <v>0.3416529218367523</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0008206208832372552</v>
+        <v>0.001179540583569061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.374605780331918</v>
+        <v>0.4918616616553092</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3742055655813531</v>
+        <v>0.4901234090419757</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004002147505648979</v>
+        <v>0.001738252613333546</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>十堰市</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3909857658139979</v>
+        <v>0.3579101638208648</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>枣庄市</t>
+          <t>齐齐哈尔市</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3898137248991556</v>
+        <v>0.3583403828096682</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001172040914842243</v>
+        <v>0.0004302189888034103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>十堰市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3309766363674941</v>
+        <v>0.7893759177059939</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3309291679287372</v>
+        <v>0.8321406029295618</v>
       </c>
       <c r="E16" t="n">
-        <v>4.746843875691464e-05</v>
+        <v>0.04276468522356791</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8321215050272512</v>
+        <v>0.4078400836629101</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>宿州市</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.4074300763791418</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01192013332569253</v>
+        <v>0.0004100072837682767</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>厦门市</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3684578688330198</v>
+        <v>0.8927171273300263</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>宿迁市</t>
+          <t>大庆市</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3685735538222124</v>
+        <v>0.8569344903774969</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000115684989192566</v>
+        <v>0.03578263695252937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>厦门市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8588704353664229</v>
+        <v>0.6165315819970709</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>鄂尔多斯市</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.6160282370847007</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01482879701347917</v>
+        <v>0.0005033449123702516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6693232993021011</v>
+        <v>0.2735766864100379</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>包头市</t>
+          <t>资阳市</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6764900792068878</v>
+        <v>0.2720495787262148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007166779904786647</v>
+        <v>0.001527107683823137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>咸宁市</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3940388306286788</v>
+        <v>0.3610940020076129</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>酒泉市</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3935468721005821</v>
+        <v>0.3605996432654699</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000491958528096692</v>
+        <v>0.0004943587421429863</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>咸宁市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3773382009489468</v>
+        <v>0.3827702782897701</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>四平市</t>
+          <t>怀化市</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3772150387646325</v>
+        <v>0.3830970569947831</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000123162184314296</v>
+        <v>0.0003267787050129645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3010445955338716</v>
+        <v>0.6376035484244333</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>石嘴山市</t>
+          <t>威海市</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.3033184056845205</v>
+        <v>0.6406269134129988</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002273810150648869</v>
+        <v>0.00302336498856548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6891715703463251</v>
+        <v>0.6670166863463695</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>扬州市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6885984106458147</v>
+        <v>0.6728690200855837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0005731597005104172</v>
+        <v>0.005852333739214233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8343024979440891</v>
+        <v>0.6910714194820322</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.6728690200855837</v>
       </c>
       <c r="E25" t="n">
-        <v>0.009739140408854707</v>
+        <v>0.01820239939644852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7697520696513712</v>
+        <v>0.4040508892150536</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>巴中市</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.4030828700037525</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008954747922997996</v>
+        <v>0.0009680192113010189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4183643860283994</v>
+        <v>0.3688551032731772</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>岳阳市</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.4187212875925289</v>
+        <v>0.36740862422057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003569015641294304</v>
+        <v>0.001446479052607197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.407985835769912</v>
+        <v>0.6822696789854598</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>白山市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.4071140119121204</v>
+        <v>0.6728690200855837</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0008718238577915538</v>
+        <v>0.009400658899876069</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.7633200063342046</v>
+        <v>0.3666086634609331</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>广安市</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.3664375468793865</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002522684605831382</v>
+        <v>0.0001711165815465598</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2430102280527658</v>
+        <v>0.2801943597848507</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉峪关市</t>
+          <t>平凉市</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2444267359609275</v>
+        <v>0.2792525489614825</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001416507908161724</v>
+        <v>0.0009418108233681943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>徐州市</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1203370915799696</v>
+        <v>0.4774029384801278</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>武威市</t>
+          <t>攀枝花市</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1127005748163775</v>
+        <v>0.4737386591582946</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007636516763592047</v>
+        <v>0.003664279321833219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>惠州市</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5697002684827946</v>
+        <v>0.4920835888491375</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.4901234090419757</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01228335073803344</v>
+        <v>0.001960179807161844</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>惠州市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6411959300284414</v>
+        <v>0.6577967298203278</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6506604951975654</v>
+        <v>0.6581726710272117</v>
       </c>
       <c r="E33" t="n">
-        <v>0.009464565169123973</v>
+        <v>0.0003759412068838897</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7847425370452863</v>
+        <v>0.2912668484138451</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>赤峰市</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.2911705459582676</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02394521531691307</v>
+        <v>9.63024555774572e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>揭阳市</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3358007666947319</v>
+        <v>0.4316608160852422</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南阳市</t>
+          <t>漳州市</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3355668165931009</v>
+        <v>0.4319624750432851</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0002339501016309642</v>
+        <v>0.0003016589580429052</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>揭阳市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4367340829745346</v>
+        <v>0.5186316070781934</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>湖州市</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4283417552558393</v>
+        <v>0.512671404603382</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008392327718695303</v>
+        <v>0.005960202474811438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>昭通市</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6424428967302566</v>
+        <v>0.2992640704824825</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>牡丹江市</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.6506604951975654</v>
+        <v>0.2982563278919946</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008217598467308851</v>
+        <v>0.001007742590487914</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>昭通市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1437017769637478</v>
+        <v>0.3221011742370853</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>六盘水市</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.148616681051944</v>
+        <v>0.3208975380767707</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004914904088196143</v>
+        <v>0.001203636160314658</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3686887923741778</v>
+        <v>0.3504588520954487</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>宿迁市</t>
+          <t>驻马店市</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3685735538222124</v>
+        <v>0.3503112850269197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0001152385519653798</v>
+        <v>0.0001475670685290864</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>曲靖市</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3359084323084275</v>
+        <v>0.2708907328670914</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南阳市</t>
+          <t>白银市</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.3355668165931009</v>
+        <v>0.2715222068310919</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003416157153265376</v>
+        <v>0.0006314739640005396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2296174218215934</v>
+        <v>0.730801121904105</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>张家界市</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.2295907756584178</v>
+        <v>0.7333302055809905</v>
       </c>
       <c r="E41" t="n">
-        <v>2.66461631756032e-05</v>
+        <v>0.002529083676885535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.8366090374002225</v>
+        <v>0.3267873509224634</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>张掖市</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.3266886369021627</v>
       </c>
       <c r="E42" t="n">
-        <v>0.007432600952721247</v>
+        <v>9.871402030070531e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3337490810091809</v>
+        <v>0.3920220189758724</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>梧州市</t>
+          <t>德州市</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.332440471887651</v>
+        <v>0.3921808432132019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001308609121529969</v>
+        <v>0.0001588242373295468</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>梅州市</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.470150599549103</v>
+        <v>0.3645564542588817</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>南宁市</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.472315266014515</v>
+        <v>0.3639808378313583</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002164666465411968</v>
+        <v>0.0005756164275234066</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>梅州市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.364596052980641</v>
+        <v>0.2486695325369093</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>商丘市</t>
+          <t>吕梁市</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3640769492208184</v>
+        <v>0.2382588394133412</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005191037598226145</v>
+        <v>0.0104106931235681</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>武汉市</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2068479869654443</v>
+        <v>0.7448533452921073</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>泸州市</t>
+          <t>张家界市</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.2054478047372761</v>
+        <v>0.7333302055809905</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001400182228168206</v>
+        <v>0.01152313971111685</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>武汉市</t>
+          <t>汕头市</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8219495626076719</v>
+        <v>0.7102034374650297</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.7097059074855585</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02209207574527183</v>
+        <v>0.0004975299794711674</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>汕头市</t>
+          <t>汕尾市</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5524249595517867</v>
+        <v>0.4125505568490023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>漳州市</t>
+          <t>萍乡市</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.4143124410735651</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004350442348536654</v>
+        <v>0.00176188422456286</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>汕尾市</t>
+          <t>江门市</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4740769939963922</v>
+        <v>0.4650364636450953</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>辽源市</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.472315266014515</v>
+        <v>0.4674990125378404</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001761727981877292</v>
+        <v>0.002462548892745109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.5930290076316872</v>
+        <v>0.3543613515019728</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>德阳市</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5889086120814283</v>
+        <v>0.3545392524367033</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004120395550258893</v>
+        <v>0.0001779009347305238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>河源市</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3874581040509938</v>
+        <v>0.3043094379872305</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>承德市</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3884673289476389</v>
+        <v>0.3040954623029095</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001009224896645067</v>
+        <v>0.0002139756843209661</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>河源市</t>
+          <t>泉州市</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3861091008453745</v>
+        <v>0.579995818664207</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>萍乡市</t>
+          <t>包头市</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.3850143567992458</v>
+        <v>0.585935201079246</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001094744046128748</v>
+        <v>0.005939382415038996</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>泉州市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6906862012470775</v>
+        <v>0.7954350604620423</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.689946010113622</v>
+        <v>0.8321406029295618</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0007401911334554701</v>
+        <v>0.03670554246751956</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>海口市</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7981544014541322</v>
+        <v>0.8954528701741318</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>大庆市</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.8569344903774969</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03735707972575897</v>
+        <v>0.03851837979663486</v>
       </c>
     </row>
     <row r="55">
@@ -1580,18 +1580,18 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3573100612250658</v>
+        <v>0.3842932108450306</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>广安市</t>
+          <t>衡阳市</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.3564217807257961</v>
+        <v>0.38433706419165</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0008882804992696447</v>
+        <v>4.385334661943796e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1601,18 +1601,18 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5350422714982762</v>
+        <v>0.4125976451291421</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>永州市</t>
+          <t>萍乡市</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5330973940668355</v>
+        <v>0.4143124410735651</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001944877431440672</v>
+        <v>0.001714795944423031</v>
       </c>
     </row>
     <row r="57">
@@ -1622,18 +1622,18 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4609904960576564</v>
+        <v>0.322158745290612</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3208975380767707</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002361115325545171</v>
+        <v>0.00126120721384132</v>
       </c>
     </row>
     <row r="58">
@@ -1643,18 +1643,18 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.538142226381053</v>
+        <v>0.5544719237390217</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>陇南市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.5426091608932018</v>
+        <v>0.5524957907962919</v>
       </c>
       <c r="E58" t="n">
-        <v>0.004466934512148746</v>
+        <v>0.001976132942729802</v>
       </c>
     </row>
     <row r="59">
@@ -1664,18 +1664,18 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4722846153787529</v>
+        <v>0.4059118791133847</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>开封市</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.472315266014515</v>
+        <v>0.4064265876286161</v>
       </c>
       <c r="E59" t="n">
-        <v>3.065063576201954e-05</v>
+        <v>0.0005147085152313879</v>
       </c>
     </row>
     <row r="60">
@@ -1685,18 +1685,18 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3312009140172018</v>
+        <v>0.4542896672389045</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3309291679287372</v>
+        <v>0.4503622425582976</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0002717460884646417</v>
+        <v>0.003927424680606861</v>
       </c>
     </row>
     <row r="61">
@@ -1706,18 +1706,18 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5366817036530311</v>
+        <v>0.4350294540924396</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>永州市</t>
+          <t>白山市</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.5330973940668355</v>
+        <v>0.4348390326603184</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0035843095861956</v>
+        <v>0.0001904214321211684</v>
       </c>
     </row>
     <row r="62">
@@ -1727,18 +1727,18 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3839309267865892</v>
+        <v>0.4449997276222643</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>泰安市</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.3838525319873808</v>
+        <v>0.4460348951133709</v>
       </c>
       <c r="E62" t="n">
-        <v>7.839479920840331e-05</v>
+        <v>0.001035167491106548</v>
       </c>
     </row>
     <row r="63">
@@ -1748,18 +1748,18 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6535346116745194</v>
+        <v>0.5860582705737426</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>绍兴市</t>
+          <t>包头市</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.6516215155659545</v>
+        <v>0.585935201079246</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001913096108564938</v>
+        <v>0.000123069494496586</v>
       </c>
     </row>
     <row r="64">
@@ -1769,18 +1769,18 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3940714790459249</v>
+        <v>0.416612023722461</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>永州市</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.3935468721005821</v>
+        <v>0.4164590059295633</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0005246069453428426</v>
+        <v>0.000153017792897725</v>
       </c>
     </row>
     <row r="65">
@@ -1790,18 +1790,18 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1575768268514829</v>
+        <v>0.3438497864836382</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>资阳市</t>
+          <t>绵阳市</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1574217800009965</v>
+        <v>0.3440821541682186</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0001550468504864788</v>
+        <v>0.000232367684580459</v>
       </c>
     </row>
     <row r="66">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8086841972992153</v>
+        <v>0.8328010442583518</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.8321406029295618</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03535744105372851</v>
+        <v>0.0006604413287899513</v>
       </c>
     </row>
     <row r="67">
@@ -1832,18 +1832,18 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5801100678228412</v>
+        <v>0.5110404666628906</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>湖州市</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.512671404603382</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001873551397986839</v>
+        <v>0.001630937940491406</v>
       </c>
     </row>
     <row r="68">
@@ -1853,18 +1853,18 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.6079735741647361</v>
+        <v>0.5010880836063176</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>漯河市</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.6100241305589137</v>
+        <v>0.5019388674828286</v>
       </c>
       <c r="E68" t="n">
-        <v>0.002050556394177616</v>
+        <v>0.000850783876510941</v>
       </c>
     </row>
     <row r="69">
@@ -1874,18 +1874,18 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.646927382004736</v>
+        <v>0.479040935703874</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>攀枝花市</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6506604951975654</v>
+        <v>0.4737386591582946</v>
       </c>
       <c r="E69" t="n">
-        <v>0.003733113192829429</v>
+        <v>0.00530227654557941</v>
       </c>
     </row>
     <row r="70">
@@ -1895,18 +1895,18 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8619300223735447</v>
+        <v>0.7813702093474955</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>张家界市</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.7333302055809905</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01788838402060089</v>
+        <v>0.04804000376650497</v>
       </c>
     </row>
     <row r="71">
@@ -1916,18 +1916,18 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3801400304147788</v>
+        <v>0.5171162429451582</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>宁德市</t>
+          <t>湖州市</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.380347666634766</v>
+        <v>0.512671404603382</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0002076362199871506</v>
+        <v>0.004444838341776225</v>
       </c>
     </row>
     <row r="72">
@@ -1937,18 +1937,18 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.4111283593276571</v>
+        <v>0.3854236372464514</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4115914941250824</v>
+        <v>0.3862784693348595</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0004631347974253242</v>
+        <v>0.0008548320884080862</v>
       </c>
     </row>
     <row r="73">
@@ -1958,18 +1958,18 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3932395375740889</v>
+        <v>0.3729964415330324</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>龙岩市</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3935468721005821</v>
+        <v>0.3734180987993717</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0003073345264931748</v>
+        <v>0.0004216572663393037</v>
       </c>
     </row>
     <row r="74">
@@ -1979,18 +1979,18 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3326495920868097</v>
+        <v>0.3914247487979043</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>梧州市</t>
+          <t>益阳市</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.332440471887651</v>
+        <v>0.3918216504255149</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0002091201991586966</v>
+        <v>0.0003969016276105797</v>
       </c>
     </row>
     <row r="75">
@@ -2000,18 +2000,18 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3221033316464909</v>
+        <v>0.4371019782967627</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>滁州市</t>
+          <t>莆田市</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.321504607698341</v>
+        <v>0.4360335229685751</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0005987239481499151</v>
+        <v>0.001068455328187556</v>
       </c>
     </row>
     <row r="76">
@@ -2021,18 +2021,18 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.7468862778973656</v>
+        <v>0.642547761797411</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>威海市</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.6406269134129988</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01391104383100761</v>
+        <v>0.001920848384412199</v>
       </c>
     </row>
     <row r="77">
@@ -2042,18 +2042,18 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5190356052647671</v>
+        <v>0.5469449397756897</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5168400107277523</v>
+        <v>0.5524957907962919</v>
       </c>
       <c r="E77" t="n">
-        <v>0.002195594537014789</v>
+        <v>0.005550851020602154</v>
       </c>
     </row>
     <row r="78">
@@ -2063,18 +2063,18 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5321893912905067</v>
+        <v>0.3248069081261447</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>永州市</t>
+          <t>中卫市</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.5330973940668355</v>
+        <v>0.3247807225239759</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0009080027763288534</v>
+        <v>2.61856021688267e-05</v>
       </c>
     </row>
     <row r="79">
@@ -2084,18 +2084,18 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3011020484740152</v>
+        <v>0.361921581713798</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>石嘴山市</t>
+          <t>防城港市</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.3033184056845205</v>
+        <v>0.3616177887946437</v>
       </c>
       <c r="E79" t="n">
-        <v>0.002216357210505282</v>
+        <v>0.0003037929191542776</v>
       </c>
     </row>
     <row r="80">
@@ -2105,18 +2105,18 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7037723600060878</v>
+        <v>0.6064505532842305</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>马鞍山市</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.689946010113622</v>
+        <v>0.6075269194069369</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01382634989246578</v>
+        <v>0.001076366122706451</v>
       </c>
     </row>
     <row r="81">
@@ -2126,18 +2126,18 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4687727786723674</v>
+        <v>0.3312500443492191</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>崇左市</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.472315266014515</v>
+        <v>0.3315676438046251</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003542487342147571</v>
+        <v>0.0003175994554060479</v>
       </c>
     </row>
     <row r="82">
@@ -2147,18 +2147,18 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3842881886039434</v>
+        <v>0.4533278551013084</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.3838525319873808</v>
+        <v>0.4503622425582976</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0004356566165625853</v>
+        <v>0.002965612543010809</v>
       </c>
     </row>
     <row r="83">
@@ -2168,18 +2168,18 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.7373957634510643</v>
+        <v>0.4982713488924247</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>许昌市</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.7314278054809498</v>
+        <v>0.4959760160968489</v>
       </c>
       <c r="E83" t="n">
-        <v>0.005967957970114512</v>
+        <v>0.002295332795575811</v>
       </c>
     </row>
     <row r="84">
@@ -2189,18 +2189,18 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5619868067821912</v>
+        <v>0.5161539974737953</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>漳州市</t>
+          <t>湖州市</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.512671404603382</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01391228957894108</v>
+        <v>0.003482592870413304</v>
       </c>
     </row>
     <row r="85">
@@ -2210,18 +2210,18 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1520543397324067</v>
+        <v>0.3051690368111342</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>内江市</t>
+          <t>石嘴山市</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.1516145266122794</v>
+        <v>0.3048194827989243</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0004398131201273359</v>
+        <v>0.0003495540122098739</v>
       </c>
     </row>
     <row r="86">
@@ -2231,18 +2231,18 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.5107448100874207</v>
+        <v>0.5658558878569856</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>南通市</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.5167195510879644</v>
+        <v>0.5664604502234055</v>
       </c>
       <c r="E86" t="n">
-        <v>0.005974741000543737</v>
+        <v>0.0006045623664199251</v>
       </c>
     </row>
     <row r="87">
@@ -2252,18 +2252,18 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3191550921299323</v>
+        <v>0.4213004201343221</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>娄底市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.319043540188095</v>
+        <v>0.4216236368835108</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0001115519418372624</v>
+        <v>0.0003232167491886706</v>
       </c>
     </row>
     <row r="88">
@@ -2273,18 +2273,18 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.7074205706004435</v>
+        <v>0.6462125651542625</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>南通市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.689946010113622</v>
+        <v>0.6516551057954224</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0174745604868215</v>
+        <v>0.005442540641159899</v>
       </c>
     </row>
     <row r="89">
@@ -2294,18 +2294,18 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3111399045243747</v>
+        <v>0.2973956823272103</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>朔州市</t>
+          <t>通辽市</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.3114912628613107</v>
+        <v>0.2975335577816375</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0003513583369360029</v>
+        <v>0.0001378754544272276</v>
       </c>
     </row>
     <row r="90">
@@ -2315,18 +2315,18 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.449066454596559</v>
+        <v>0.4205818003519163</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.4453301695863325</v>
+        <v>0.4216236368835108</v>
       </c>
       <c r="E90" t="n">
-        <v>0.003736285010226548</v>
+        <v>0.001041836531594509</v>
       </c>
     </row>
     <row r="91">
@@ -2336,18 +2336,18 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2885028657571836</v>
+        <v>0.3372236707179801</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>贵港市</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.2888238361002006</v>
+        <v>0.337002852444874</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0003209703430170352</v>
+        <v>0.0002208182731060493</v>
       </c>
     </row>
     <row r="92">
@@ -2357,18 +2357,18 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.7744449224112561</v>
+        <v>0.7073155711544569</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.7097059074855585</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01364760068288284</v>
+        <v>0.002390336331101639</v>
       </c>
     </row>
     <row r="93">
@@ -2378,18 +2378,18 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4910858243365312</v>
+        <v>0.4376344192429651</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>东营市</t>
+          <t>莆田市</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.4891403424799634</v>
+        <v>0.4360335229685751</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001945481856567843</v>
+        <v>0.001600896274389974</v>
       </c>
     </row>
     <row r="94">
@@ -2399,18 +2399,18 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3944129312647325</v>
+        <v>0.3472558649097193</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>松原市</t>
+          <t>佳木斯市</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.395152241730355</v>
+        <v>0.3497415989081596</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000739310465622478</v>
+        <v>0.002485733998440376</v>
       </c>
     </row>
     <row r="95">
@@ -2420,18 +2420,18 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5170883486316407</v>
+        <v>0.4697080493351409</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>辽源市</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.5168400107277523</v>
+        <v>0.4674990125378404</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002483379038883404</v>
+        <v>0.002209036797300501</v>
       </c>
     </row>
     <row r="96">
@@ -2441,18 +2441,18 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5827389435927747</v>
+        <v>0.6112667827799468</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>盐城市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.5834585271888036</v>
+        <v>0.6107765572197943</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000719583596028972</v>
+        <v>0.0004902255601525463</v>
       </c>
     </row>
     <row r="97">
@@ -2462,18 +2462,18 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5489199465261432</v>
+        <v>0.5274332452811998</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>漳州市</t>
+          <t>扬州市</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.5337383308057522</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0008454293228931098</v>
+        <v>0.006305085524552334</v>
       </c>
     </row>
     <row r="98">
@@ -2483,18 +2483,18 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4991679750576513</v>
+        <v>0.4301877064392713</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>鄂尔多斯市</t>
+          <t>日照市</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.4967783697603274</v>
+        <v>0.4306063380786264</v>
       </c>
       <c r="E98" t="n">
-        <v>0.002389605297323905</v>
+        <v>0.0004186316393550715</v>
       </c>
     </row>
     <row r="99">
@@ -2504,18 +2504,18 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4162781738422648</v>
+        <v>0.2968171002660452</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>来宾市</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.4157133985943317</v>
+        <v>0.2970190291996261</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0005647752479331913</v>
+        <v>0.0002019289335808971</v>
       </c>
     </row>
     <row r="100">
@@ -2525,18 +2525,18 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.6300515533716313</v>
+        <v>0.6876095890614932</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>威海市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.6281574550229211</v>
+        <v>0.6728690200855837</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001894098348710238</v>
+        <v>0.01474056897590947</v>
       </c>
     </row>
     <row r="101">
@@ -2546,18 +2546,18 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4646723834142794</v>
+        <v>0.3950437541943191</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>七台河市</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3954154769738704</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001320772031077833</v>
+        <v>0.0003717227795512201</v>
       </c>
     </row>
     <row r="102">
@@ -2567,18 +2567,18 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4189323194697923</v>
+        <v>0.3005291630460983</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.4187212875925289</v>
+        <v>0.3005491729620864</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0002110318772634567</v>
+        <v>2.000991598816171e-05</v>
       </c>
     </row>
     <row r="103">
@@ -2588,18 +2588,18 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4653095913696039</v>
+        <v>0.3807220315364475</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>张家口市</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3796976060305295</v>
       </c>
       <c r="E103" t="n">
-        <v>0.001957979986402292</v>
+        <v>0.00102442550591797</v>
       </c>
     </row>
     <row r="104">
@@ -2609,18 +2609,18 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5575398153409002</v>
+        <v>0.5445308835023563</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>漳州市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.5379718773385412</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00946529813765018</v>
+        <v>0.006559006163815106</v>
       </c>
     </row>
     <row r="105">
@@ -2630,18 +2630,18 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4105826770380659</v>
+        <v>0.2853759162181138</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>上饶市</t>
+          <t>临汾市</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.4101217840131231</v>
+        <v>0.2851000132398643</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0004608930249427878</v>
+        <v>0.000275902978249476</v>
       </c>
     </row>
     <row r="106">
@@ -2651,18 +2651,18 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4498529383706055</v>
+        <v>0.3523242643583372</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>朔州市</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.4453301695863325</v>
+        <v>0.3524113797710717</v>
       </c>
       <c r="E106" t="n">
-        <v>0.004522768784273046</v>
+        <v>8.71154127344842e-05</v>
       </c>
     </row>
     <row r="107">
@@ -2672,18 +2672,18 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.5567564130867387</v>
+        <v>0.5436497545701499</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>漳州市</t>
+          <t>芜湖市</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.5379718773385412</v>
       </c>
       <c r="E107" t="n">
-        <v>0.008681895883488666</v>
+        <v>0.005677877231608619</v>
       </c>
     </row>
     <row r="108">
@@ -2693,18 +2693,18 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.4562673127250872</v>
+        <v>0.3640562713040189</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>南宁市</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3639808378313583</v>
       </c>
       <c r="E108" t="n">
-        <v>0.007084298658114385</v>
+        <v>7.543347266053546e-05</v>
       </c>
     </row>
     <row r="109">
@@ -2714,18 +2714,18 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.4272671615365563</v>
+        <v>0.3142340148320286</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>贺州市</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.4277297993378002</v>
+        <v>0.3146401670729816</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0004626378012438925</v>
+        <v>0.0004061522409530283</v>
       </c>
     </row>
     <row r="110">
@@ -2735,18 +2735,18 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6020131151681012</v>
+        <v>0.6442400825520554</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>湖州市</t>
+          <t>威海市</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.6032380601490713</v>
+        <v>0.6406269134129988</v>
       </c>
       <c r="E110" t="n">
-        <v>0.001224944980970144</v>
+        <v>0.003613169139056627</v>
       </c>
     </row>
     <row r="111">
@@ -2756,18 +2756,18 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.4450078468441199</v>
+        <v>0.355687806100967</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>九江市</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.4453301695863325</v>
+        <v>0.3547668362088474</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0003223227422125552</v>
+        <v>0.0009209698921195386</v>
       </c>
     </row>
     <row r="112">
@@ -2777,18 +2777,18 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.6349153644359696</v>
+        <v>0.6877934828676362</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>威海市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.6281574550229211</v>
+        <v>0.6728690200855837</v>
       </c>
       <c r="E112" t="n">
-        <v>0.006757909413048546</v>
+        <v>0.01492446278205251</v>
       </c>
     </row>
     <row r="113">
@@ -2798,18 +2798,18 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.5781861527856467</v>
+        <v>0.5944202197835047</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>东营市</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.595845804286514</v>
       </c>
       <c r="E113" t="n">
-        <v>0.003797466435181418</v>
+        <v>0.001425584503009336</v>
       </c>
     </row>
     <row r="114">
@@ -2819,18 +2819,18 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4807299628133942</v>
+        <v>0.4096587713608245</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>临沂市</t>
+          <t>宿州市</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.4822737683327452</v>
+        <v>0.4074300763791418</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001543805519351016</v>
+        <v>0.002228694981682655</v>
       </c>
     </row>
     <row r="115">
@@ -2840,18 +2840,18 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.4926159897096938</v>
+        <v>0.4317900163973685</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>济宁市</t>
+          <t>漳州市</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.4952662585326866</v>
+        <v>0.4319624750432851</v>
       </c>
       <c r="E115" t="n">
-        <v>0.002650268822992796</v>
+        <v>0.0001724586459165844</v>
       </c>
     </row>
     <row r="116">
@@ -2861,18 +2861,18 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.5736058824661764</v>
+        <v>0.583502150959754</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>包头市</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.585935201079246</v>
       </c>
       <c r="E116" t="n">
-        <v>0.008377736754651699</v>
+        <v>0.00243305011949202</v>
       </c>
     </row>
     <row r="117">
@@ -2882,18 +2882,18 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4909165781315575</v>
+        <v>0.4251080133325786</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>东营市</t>
+          <t>连云港市</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.4891403424799634</v>
+        <v>0.4264637027164086</v>
       </c>
       <c r="E117" t="n">
-        <v>0.001776235651594182</v>
+        <v>0.001355689383830017</v>
       </c>
     </row>
     <row r="118">
@@ -2903,18 +2903,18 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.5100901007211084</v>
+        <v>0.4649461840967279</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>辽源市</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.5167195510879644</v>
+        <v>0.4674990125378404</v>
       </c>
       <c r="E118" t="n">
-        <v>0.006629450366856027</v>
+        <v>0.002552828441112487</v>
       </c>
     </row>
     <row r="119">
@@ -2924,18 +2924,18 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.5931866747508372</v>
+        <v>0.6259607577951413</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>鄂尔多斯市</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.5889086120814283</v>
+        <v>0.6160282370847007</v>
       </c>
       <c r="E119" t="n">
-        <v>0.004278062669408889</v>
+        <v>0.009932520710440595</v>
       </c>
     </row>
     <row r="120">
@@ -2945,18 +2945,18 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.4613569977177967</v>
+        <v>0.3726438343835647</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>龙岩市</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3734180987993717</v>
       </c>
       <c r="E120" t="n">
-        <v>0.001994613665404876</v>
+        <v>0.0007742644158069689</v>
       </c>
     </row>
     <row r="121">
@@ -2966,18 +2966,18 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6889800549055403</v>
+        <v>0.7751321882788559</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>扬州市</t>
+          <t>张家界市</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.6885984106458147</v>
+        <v>0.7333302055809905</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0003816442597255332</v>
+        <v>0.04180198269786539</v>
       </c>
     </row>
     <row r="122">
@@ -2987,18 +2987,18 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.4612514045037842</v>
+        <v>0.3708767409334641</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>龙岩市</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.3734180987993717</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002100206879417421</v>
+        <v>0.002541357865907645</v>
       </c>
     </row>
     <row r="123">
@@ -3008,18 +3008,18 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.5134829777508433</v>
+        <v>0.4818372126454314</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>攀枝花市</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.5167195510879644</v>
+        <v>0.4737386591582946</v>
       </c>
       <c r="E123" t="n">
-        <v>0.003236573337121129</v>
+        <v>0.008098553487136895</v>
       </c>
     </row>
   </sheetData>
